--- a/Excel/class2final.xlsx
+++ b/Excel/class2final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WORK/Personal/xlsx_to_vcf/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703D528-4844-1543-BDCD-0AFEB0810C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15255" windowHeight="6150" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="15260" windowHeight="11800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
-  <si>
-    <t>Phone  number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t xml:space="preserve">Dev Tomar </t>
   </si>
@@ -105,9 +108,6 @@
     <t>2-B</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number </t>
-  </si>
-  <si>
     <t xml:space="preserve">Joshua Paul </t>
   </si>
   <si>
@@ -220,13 +220,16 @@
   </si>
   <si>
     <t>First</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +241,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -325,9 +330,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -361,15 +363,23 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +458,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +510,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,419 +703,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>8057878895</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>8077100552</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>8171260064</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>6398558478</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>8171854050</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>7454982299</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>8923025780</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>7983998303</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>9520001617</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>8439960009</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>9759876821</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>8883555640</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>7302654826</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>8979539435</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4">
         <v>941258563</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <v>9027254064</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>9548339112</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>9720094135</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>9359387776</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
         <v>8273246092</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4">
         <v>805181450</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4">
         <v>7983322539</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>9760052020</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4">
         <v>9045542300</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>9045542300</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>8929805026</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1077,370 +1123,373 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13">
+        <v>7409457273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="C3" s="13">
+        <v>8650004005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
-        <v>7409457273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14">
-        <v>8650004005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="13">
+        <v>8630736040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C6" s="13">
+        <v>8445583366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14">
-        <v>8630736040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.25">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="C7" s="13">
+        <v>7535070881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8171854050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="14">
-        <v>8445583366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C9" s="13">
+        <v>9058511850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="14">
-        <v>7535070881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="C10" s="13">
+        <v>9412016711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
-        <v>8171854050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.25">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C11" s="13">
+        <v>7454982299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8923025780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="14">
-        <v>9058511850</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="C13" s="13">
+        <v>8791151914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="14">
-        <v>9412016711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14">
-        <v>7454982299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.25">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14">
-        <v>8923025780</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14">
-        <v>8791151914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="15">
+        <v>9997262334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="C16" s="15">
+        <v>9720708997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="16">
-        <v>9997262334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.25">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="C17" s="15">
+        <v>9012070809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="16">
-        <v>9720708997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="C18" s="15">
+        <v>7248423625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="16">
-        <v>9012070809</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="C19" s="15">
+        <v>7500893660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="16">
-        <v>7248423625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="C20" s="15">
+        <v>9012842127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="16">
-        <v>7500893660</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C21" s="15">
+        <v>8534067068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="16">
-        <v>9012842127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="C22" s="15">
+        <v>8218063821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="16">
-        <v>8534067068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C23" s="17">
+        <v>9286621112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="16">
-        <v>8218063821</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="26.25">
-      <c r="A23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="C24" s="15">
+        <v>8273957048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="18">
-        <v>9286621112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="C25" s="15">
+        <v>9756744071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="16">
-        <v>8273957048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C26" s="15">
+        <v>6396002397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="16">
-        <v>9756744071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="C27" s="15">
+        <v>9149212649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="16">
-        <v>6396002397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C28" s="15">
+        <v>9084692010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="16">
-        <v>9149212649</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C29" s="15">
+        <v>839309002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="16">
-        <v>9084692010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="C30" s="15">
+        <v>8077606806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="16">
-        <v>839309002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="C31" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="16">
-        <v>8077606806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>9368289381</v>
       </c>
     </row>
@@ -1450,126 +1499,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.25">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22">
+        <v>9837500937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C3" s="22">
+        <v>8445201921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22">
+        <v>8532908432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="23">
-        <v>9837500937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.25">
-      <c r="A3" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="C5" s="22">
+        <v>9557211285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7983998303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22">
+        <v>9520001617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22">
+        <v>8439960009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="23">
-        <v>8445201921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="23">
-        <v>8532908432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="C9" s="22">
+        <v>9045481282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="23">
-        <v>9557211285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
-        <v>7983998303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25">
-      <c r="A7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23">
-        <v>9520001617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="23">
-        <v>8439960009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="23">
-        <v>9045481282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>9650207931</v>
       </c>
     </row>
